--- a/Classifier1/Weightedlabels.xlsx
+++ b/Classifier1/Weightedlabels.xlsx
@@ -441,11 +441,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
